--- a/biology/Botanique/Stryphnodendron_guianense/Stryphnodendron_guianense.xlsx
+++ b/biology/Botanique/Stryphnodendron_guianense/Stryphnodendron_guianense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stryphnodendron guianense est une espèce de plantes à fleurs de la famille des Fabaceae (sous-famille des Mimosoideae). C'est arbre originaire d'Amérique centrale et d'Amérique du Sud.
-Il est connu en Guyane sous les noms de Iduk βeiti (Palikur), Faveira-camuzé (portugais)[3], Tamalin (Créole. Attention, ce nom désigne également Abarema jupunba). On l'appelle mananballi au Guyana[4].
+Il est connu en Guyane sous les noms de Iduk βeiti (Palikur), Faveira-camuzé (portugais), Tamalin (Créole. Attention, ce nom désigne également Abarema jupunba). On l'appelle mananballi au Guyana.
 Au brésil, il est porte les noms de Baginha, Dorme-dorme, Fava-de-paca, Faveira-camuzé, Jatapiririca (Portugais).
-Ailleurs en Amérique hispanophone, on l'appelle Brusquillo, Canafistolillo, Manicillo, Pashaca, Tamalin (Espagnol)[5].
+Ailleurs en Amérique hispanophone, on l'appelle Brusquillo, Canafistolillo, Manicillo, Pashaca, Tamalin (Espagnol).
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Stryphnodendron guianense peut varier dans son apparence selon la région et la sous-espèce considérée (stature, taille des feuilles, nombre de pennes, etc.).
 C'est généralement un arbre moyen à grand, atteignant 35 m, mais fleurissant parfois dès 8 m ou moins.
@@ -542,7 +556,7 @@
 L'ovaire long d'environ 1 mm, est glabre ou pileux, dressé sur un stipe de 0,3-1 mm.
 Le fuit est une gousse sombres noirâtres, subsessile, de forme linéaire, arrondie à l'apex, longue de 6-13 x 1,1-1,7 cm, de profil large linéaire, droite ou légèrement incurvée, comprimée mais charnue, contenant 8-13(14) graines, avec des sutures peu saillantes, des valves pulpeuses, légèrement convexes au niveau de chaque graine, avec un exocarpe densément pubérulent ou glabre.
 La déhiscence très tardive, se fait depuis les sutures se séparant légèrement et libérant les graines sous l'effet de l'humidité.
-Les graines comprimées-obovoïdes, mesurant environ 8-11 x 5-7 mm, recouvertes d'une testa noir terne aréolée, sont séparées entre elles par des septa incomplets, hauts de plus de 1 mm, obliquement basipétales, sont portées par un funicule sigmoïde plus ou moins dilaté à l'apex, et contiennent un endosperme abondant[4],[6],[7],[5].
+Les graines comprimées-obovoïdes, mesurant environ 8-11 x 5-7 mm, recouvertes d'une testa noir terne aréolée, sont séparées entre elles par des septa incomplets, hauts de plus de 1 mm, obliquement basipétales, sont portées par un funicule sigmoïde plus ou moins dilaté à l'apex, et contiennent un endosperme abondant.
 </t>
         </is>
       </c>
@@ -571,14 +585,16 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Stryphnodendron guianense dans une grande partie de l'Amérique du Sud : du Costa Rica au sud-est du Brésil (Paraná) en passant par quasiment tout le bassin amazonien, Guyane vénézuélienne et Guyanes, et la Bolivie[4],[8].
-En Amazonie, il est présent[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Stryphnodendron guianense dans une grande partie de l'Amérique du Sud : du Costa Rica au sud-est du Brésil (Paraná) en passant par quasiment tout le bassin amazonien, Guyane vénézuélienne et Guyanes, et la Bolivie,.
+En Amazonie, il est présent :
 dans le nord (y compris l'Amazonie du Venezuela, la Colombie, le Guyana, le Suriname, la Guyane, et le bassin supérieur du Rio Negro au nord du Brésil),
 dans l'ouest (des pentes orientales des Andes jusqu'à la partie occidentale de l'Amazonie brésilienne, y compris l'Amazonie équatorienne, péruvienne, bolivienne et sud-colombienne, et l'État d'Acre au nord-ouest du Brésil)
 et dans le centre (de la frontière ouest du Brésil au bassin du Rio Tapajós).
-En Guyane, il est commun dans les forêts côtières[3].
+En Guyane, il est commun dans les forêts côtières.
 </t>
         </is>
       </c>
@@ -607,7 +623,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Brésil, Stryphnodendron guianense est un arbre de canopée plutôt rare, des várzea basses, apparaissant en fin de cycle sylvigénétique.
 Il affectionne les várzea basses (forêts inondées à plus de 3 m de hauteur, avec une période d'inondation moyenne de plus de 50 jours par an),
@@ -615,10 +633,10 @@
 jusqu'aux forêts amazoniennes de terre ferme (non inondées).
 C'est une espèce de succession tardive, apparaissant parmi des arbres âgés de plus de 150 ans.
 Avec sa hauteur moyenne de 30-35 m, elle occupe l'étage supérieur de la canopée dans la stratification forestière, parmi les arbres de plus de 25 m.
-Son feuillage est persistant : il ne présente pas de perte de feuilles remarquable[5].
-Au Venezuela, il pousse principalement en dessous de 300 m d'altitude, dans les forêts tropicales de terre ferme, dans les forêts secondaires, en lisière des « campo » et des « campirana », ou dans les forêts-galerie. Dans les Guyanes, il fleurit généralement d'octobre à janvier pour une fructification autour d'avril[4],[7].
-Stryphnodendron guianense est reconnu comme une espèce fixatrice d'azote produisant des nodosités dans les forêts secondaires du centre de l'Amazonie[9].
-Stryphnodendron guianense est une plante mellifère fortement butinée par des mélipones (Meliponini)[10].
+Son feuillage est persistant : il ne présente pas de perte de feuilles remarquable.
+Au Venezuela, il pousse principalement en dessous de 300 m d'altitude, dans les forêts tropicales de terre ferme, dans les forêts secondaires, en lisière des « campo » et des « campirana », ou dans les forêts-galerie. Dans les Guyanes, il fleurit généralement d'octobre à janvier pour une fructification autour d'avril,.
+Stryphnodendron guianense est reconnu comme une espèce fixatrice d'azote produisant des nodosités dans les forêts secondaires du centre de l'Amazonie.
+Stryphnodendron guianense est une plante mellifère fortement butinée par des mélipones (Meliponini).
 </t>
         </is>
       </c>
@@ -647,10 +665,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, Stryphnodendron guianense sert à préparer un remède Palikur pour soigner les maladies de foie et dissoudre les calculs[3].
-L'écorce de Stryphnodendron guianense contient des tanins pouvant être employés pour la fabrication de colle[11],[12]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, Stryphnodendron guianense sert à préparer un remède Palikur pour soigner les maladies de foie et dissoudre les calculs.
+L'écorce de Stryphnodendron guianense contient des tanins pouvant être employés pour la fabrication de colle,
 </t>
         </is>
       </c>
@@ -679,9 +699,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[13] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante :
 « MIMOSA (Guianenſis) arboreſcens, inermis ; floribus ſpicatis, albis, légumine comprello. (Tabula 357.)
 Arbor trunco triginta aut quadraginta-pedali, in ſummitate ramoſo ; ramis rectis &amp; declinatis, undique ſparſis. Folia alterna, duplicato-pinnata, coſtulis utrinque novem aut decem, coſtæ intermedin petiolatæ adnexis, coſtulis pinnatis ; foliolis utrinque novem aut decem, ovatis, acutis, oppotitis, integerrimis, ſubſeſſilibus. Glandula ſupra coſtam intermediam, pauló ſuprà ipſiùs baſim. Stipule duæ, latérales, deciduæ. Flores in ſpicam denſiſſimè congeſti, ſpicis axillaribus, binis, ternis, quaternis &amp; etiam quinis. Perianthium tubuloſum, quinquepartitum.
 Corolla alba, exigua, quinquefida. Stamina ; filamenta decem, corolla longfora. Antheræ oblongæ, baſi bifidæ, apice foliaceæ, verſatiles. Pericarpium: légumen oblongum, membranaceum, compreſſum, bivalve. Semina ſubrotunda, compreſſa.
